--- a/Revision_Progress.xlsx
+++ b/Revision_Progress.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,9 +145,6 @@
     <t>MR1.1</t>
   </si>
   <si>
-    <t>Writing - floor value</t>
-  </si>
-  <si>
     <t>MR1.2</t>
   </si>
   <si>
@@ -253,16 +251,38 @@
   </si>
   <si>
     <t>E1.8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Writing - floor value: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grammer-past tense</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -578,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +621,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -612,7 +632,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -623,7 +643,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -634,7 +654,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -666,7 +686,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -690,7 +710,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -701,7 +721,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>14</v>
@@ -712,7 +732,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
@@ -723,7 +743,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -880,7 +900,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -888,10 +908,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -899,10 +919,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -910,10 +930,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -921,15 +941,15 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -937,7 +957,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -945,7 +965,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -953,10 +973,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -964,15 +984,15 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -980,7 +1000,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -988,7 +1008,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -996,15 +1016,15 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1012,7 +1032,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1020,7 +1040,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1028,10 +1048,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1039,10 +1059,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50">
         <v>0</v>

--- a/Revision_Progress.xlsx
+++ b/Revision_Progress.xlsx
@@ -288,12 +288,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -308,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,6 +322,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,178 +733,189 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>0</v>
       </c>
     </row>
@@ -907,35 +931,35 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -972,13 +996,13 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1007,10 +1031,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1047,13 +1072,13 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Revision_Progress.xlsx
+++ b/Revision_Progress.xlsx
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,34 +964,38 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1007,26 +1011,29 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1064,10 +1071,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>0</v>
       </c>
     </row>
